--- a/biology/Zoologie/Diplocentrus/Diplocentrus.xlsx
+++ b/biology/Zoologie/Diplocentrus/Diplocentrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplocentrus est un genre de scorpions de la famille des Diplocentridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Sud des États-Unis, au Mexique et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Sud des États-Unis, au Mexique et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (03/06/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (03/06/2020) :
 Diplocentrus actun Armas &amp; Palacios-Vargas, 2002
 Diplocentrus anophthalmus Francke, 1977
 Diplocentrus bellator Teruel, 2003
@@ -637,7 +653,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Peters en 1861.
 </t>
@@ -668,7 +686,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1861 : « Ueber eine neue Eintheilung der Skorpione und ueber die von ihm in Mossambique gesammelten Arten von Skorpionen, aus welchem hier ein Auszug mitgetheilt wird. » Monatsberichte der Königlichen Preussische Akademie des Wissenschaften zu Berlin, vol. 1861, no 1, p. 507–516 (texte intégral).</t>
         </is>
